--- a/廃棄判定一覧.xlsx
+++ b/廃棄判定一覧.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21675" windowHeight="9225"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="一覧" sheetId="1" r:id="rId1"/>
+    <sheet name="バイク廃棄手続メモ" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
   <si>
     <t>シングルベッド</t>
     <phoneticPr fontId="1"/>
@@ -437,6 +438,82 @@
   </si>
   <si>
     <t>ノーブランド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>http://www.haisya.e-osusume.com/bike_saitouroku.html</t>
+  </si>
+  <si>
+    <t>軽自動車届出済証返納済確認書</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽自動車届出済証返納証明書</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>廃棄時には以下を取得しておくこと</t>
+    <rPh sb="0" eb="2">
+      <t>ハイキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イカ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>廃棄時に必要なもの</t>
+    <rPh sb="0" eb="2">
+      <t>ハイキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>https://www.recycleshop-saitama.net/blog/?p=285</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナンバープレート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽自動車届出済証</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽自動車届出済証返納届</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>軽自動車届出済証返納証明書交付請求書</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住民票</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>印鑑</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※軽自動車届出済証は、バイクを取得したときにもらっている書類です。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>※軽自動車届出済証返納届は、陸運局の用紙販売所で手に入れることができます。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -444,7 +521,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -470,6 +547,22 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
@@ -539,12 +632,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -566,8 +662,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1386,4 +1489,94 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C17"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C9" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C13" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C14" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B7" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/廃棄判定一覧.xlsx
+++ b/廃棄判定一覧.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="106">
   <si>
     <t>シングルベッド</t>
     <phoneticPr fontId="1"/>
@@ -104,13 +104,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>服飾アイロン</t>
-    <rPh sb="0" eb="2">
-      <t>フクショク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>移送済</t>
     <rPh sb="0" eb="2">
       <t>イソウ</t>
@@ -280,19 +273,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>最終利用時期</t>
-    <rPh sb="0" eb="2">
-      <t>サイシュウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リヨウ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ジキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -314,10 +294,6 @@
   </si>
   <si>
     <t>ゲーミングキーボート</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゲーミングマウス</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -342,13 +318,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>7月</t>
-    <rPh sb="1" eb="2">
-      <t>ガツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>移送予定</t>
     <rPh sb="0" eb="2">
       <t>イソウ</t>
@@ -420,16 +389,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>横長机</t>
-    <rPh sb="0" eb="2">
-      <t>ヨコナガ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ツクエ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>半ヘルメット</t>
     <rPh sb="0" eb="1">
       <t>ハン</t>
@@ -437,10 +396,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ノーブランド</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>http://www.haisya.e-osusume.com/bike_saitouroku.html</t>
   </si>
   <si>
@@ -514,6 +469,260 @@
   </si>
   <si>
     <t>※軽自動車届出済証返納届は、陸運局の用紙販売所で手に入れることができます。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>廃棄</t>
+    <rPh sb="0" eb="2">
+      <t>ハイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジモティー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノーブランド,2500円</t>
+    <rPh sb="11" eb="12">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サーキュレーター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蛍光デスクライト</t>
+    <rPh sb="0" eb="2">
+      <t>ケイコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲載中</t>
+    <rPh sb="0" eb="3">
+      <t>ケイサイチュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9月末</t>
+    <rPh sb="1" eb="3">
+      <t>ガツマツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>9月末</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外付HDD</t>
+    <rPh sb="0" eb="1">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7月中旬</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チュウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移送予定(渡航用？)</t>
+    <rPh sb="0" eb="2">
+      <t>イソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>トコウ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バックパック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リュックサック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サバゲー用</t>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーミングマウスA</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲーミングマウスB</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木製机</t>
+    <rPh sb="0" eb="2">
+      <t>モクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツクエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>横長木製机</t>
+    <rPh sb="0" eb="2">
+      <t>ヨコナガ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツクエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エアガン用ラック</t>
+    <rPh sb="4" eb="5">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>利用/移送時期</t>
+    <rPh sb="0" eb="2">
+      <t>リヨウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イソウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ジキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>服用アイロン</t>
+    <rPh sb="0" eb="2">
+      <t>フクヨウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移送-詳細</t>
+    <rPh sb="0" eb="2">
+      <t>イソウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>靴</t>
+    <rPh sb="0" eb="1">
+      <t>クツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>服</t>
+    <rPh sb="0" eb="1">
+      <t>フク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>食器</t>
+    <rPh sb="0" eb="2">
+      <t>ショッキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PCケース</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受渡済</t>
+    <rPh sb="0" eb="1">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ワタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドライヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>譲渡予定</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウト</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>妹</t>
+    <rPh sb="0" eb="1">
+      <t>イモウト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -568,7 +777,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -578,6 +787,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -640,7 +861,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -667,6 +888,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -949,11 +1176,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:I52"/>
+  <dimension ref="B2:M58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -963,148 +1190,245 @@
     <col min="3" max="3" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="1"/>
-    <col min="8" max="9" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="7.5546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="L3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>79</v>
+      </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
-      <c r="H4" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="J4" s="4"/>
+      <c r="L4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G5" s="5"/>
+      <c r="I5" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J5" s="5"/>
+      <c r="L5" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="F6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="F7" s="5"/>
-      <c r="H7" s="5"/>
+      <c r="G7" s="5"/>
       <c r="I7" s="5"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="F8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="G8" s="5"/>
       <c r="I8" s="5"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="C9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="F9" s="5"/>
-      <c r="H9" s="6"/>
+      <c r="G9" s="5"/>
       <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="C12" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="E13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
         <v>7</v>
       </c>
@@ -1112,378 +1436,685 @@
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="E15" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="F15" s="5"/>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" s="5"/>
+      <c r="C17" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="E17" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="5"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
+      <c r="E19" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="F19" s="5"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="5"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="5"/>
+        <v>91</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
+      <c r="E20" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="F20" s="5"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="5"/>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="5"/>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>13</v>
+        <v>102</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
+        <v>71</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="F22" s="5"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="5" t="s">
+      <c r="G22" s="5"/>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="5" t="s">
+      <c r="C26" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="5" t="s">
+      <c r="C27" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B28" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C28" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B30" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B32" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="5"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
+        <v>41</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="F33" s="5"/>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="5"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B34" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C34" s="5"/>
+        <v>88</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
       <c r="F34" s="5"/>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="5"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B36" s="5" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="5"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B37" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G41" s="5"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B42" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B43" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B44" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="5" t="s">
+      <c r="C44" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="F45" s="5"/>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B45" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D45" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F45" s="9"/>
+      <c r="G45" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F46" s="9"/>
+      <c r="G46" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B47" s="5" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="5"/>
+      <c r="G47" s="5"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="10"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E49" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="10"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="5"/>
+      <c r="G50" s="5"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
+      <c r="E51" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="F51" s="5"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="5"/>
+      <c r="G51" s="5"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F53" s="5"/>
+      <c r="G53" s="5"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
+      <c r="E55" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G55" s="5"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
+      <c r="E56" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G56" s="5"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1503,72 +2134,72 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C13" s="8" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/廃棄判定一覧.xlsx
+++ b/廃棄判定一覧.xlsx
@@ -15,6 +15,9 @@
     <sheet name="一覧" sheetId="1" r:id="rId1"/>
     <sheet name="バイク廃棄手続メモ" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">一覧!$B$3:$G$3</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="158">
   <si>
     <t>シングルベッド</t>
     <phoneticPr fontId="1"/>
@@ -144,13 +147,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>体重計</t>
-    <rPh sb="0" eb="3">
-      <t>タイジュウケイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>風呂椅子</t>
     <rPh sb="0" eb="2">
       <t>フロ</t>
@@ -557,27 +553,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>移送予定(渡航用？)</t>
-    <rPh sb="0" eb="2">
-      <t>イソウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨテイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>トコウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>バックパック</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>リュックサック</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -596,10 +572,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>？</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>木製机</t>
     <rPh sb="0" eb="2">
       <t>モクセイ</t>
@@ -663,27 +635,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>靴</t>
-    <rPh sb="0" eb="1">
-      <t>クツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>服</t>
-    <rPh sb="0" eb="1">
-      <t>フク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>食器</t>
-    <rPh sb="0" eb="2">
-      <t>ショッキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PCケース</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -705,16 +656,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>譲渡予定</t>
-    <rPh sb="0" eb="2">
-      <t>ジョウト</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>妹</t>
     <rPh sb="0" eb="1">
       <t>イモウト</t>
@@ -723,6 +664,453 @@
   </si>
   <si>
     <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6/23,3000円</t>
+    <rPh sb="9" eb="10">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6月初旬</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無印</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ジルシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フリマ系</t>
+    <rPh sb="3" eb="4">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>電子体重計</t>
+    <rPh sb="0" eb="2">
+      <t>デンシ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>タイジュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>廃棄</t>
+    <rPh sb="0" eb="2">
+      <t>ハイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>渡航用/対象外</t>
+    <rPh sb="0" eb="2">
+      <t>トコウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>タイショウガイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7月中旬</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7/15,2000円</t>
+    <rPh sb="9" eb="10">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームソフト類(ボストン)</t>
+    <rPh sb="6" eb="7">
+      <t>ルイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゲームソフト類A(紙袋)</t>
+    <rPh sb="6" eb="7">
+      <t>ルイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カミブクロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7月中旬</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チュウジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>廃棄</t>
+    <rPh sb="0" eb="2">
+      <t>ハイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旧型体重計</t>
+    <rPh sb="0" eb="2">
+      <t>キュウガタ</t>
+    </rPh>
+    <rPh sb="2" eb="5">
+      <t>タイジュウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スーツケース大</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>リュックサック(macpac)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>衣装ケース(3つ)</t>
+    <rPh sb="0" eb="2">
+      <t>イショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浴衣セット</t>
+    <rPh sb="0" eb="2">
+      <t>ユカタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パスポート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイナンバーカード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>財布</t>
+    <rPh sb="0" eb="2">
+      <t>サイフ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住民票/転出</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウミンヒョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>テンシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>simロック解除</t>
+    <rPh sb="6" eb="8">
+      <t>カイジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スマホ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ラッシュガードセット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海外医療保険加入</t>
+    <rPh sb="0" eb="2">
+      <t>カイガイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イリョウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホケン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>語学学校決定/受講申請</t>
+    <rPh sb="0" eb="2">
+      <t>ゴガク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガッコウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ケッテイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジュコウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住居決定(AirB)</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウキョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>M4マガジン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Li-poバッテリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>充電器(B6)</t>
+    <rPh sb="0" eb="3">
+      <t>ジュウデンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>充電ケーブル</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウデン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変換プラグ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダットサイト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スプリング予備</t>
+    <rPh sb="5" eb="7">
+      <t>ヨビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シューティングゴーグル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェイスガード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>迷彩キャップ</t>
+    <rPh sb="0" eb="2">
+      <t>メイサイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>迷彩服一式</t>
+    <rPh sb="0" eb="2">
+      <t>メイサイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イッシキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>OriginZ(分解)</t>
+    <rPh sb="8" eb="10">
+      <t>ブンカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>弾速計</t>
+    <rPh sb="0" eb="2">
+      <t>ダンソク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BBローダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7/9</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7/7,1500円</t>
+    <rPh sb="8" eb="9">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>里親</t>
+    <rPh sb="0" eb="2">
+      <t>サトオヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>受渡済</t>
+    <rPh sb="0" eb="2">
+      <t>ウケワタシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移送済</t>
+    <rPh sb="0" eb="2">
+      <t>イソウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>譲渡済</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冬服A</t>
+    <rPh sb="0" eb="2">
+      <t>フユフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移送</t>
+    <rPh sb="0" eb="2">
+      <t>イソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時期未定</t>
+    <rPh sb="0" eb="2">
+      <t>ジキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ミテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7/23,12万,廃車済</t>
+    <rPh sb="7" eb="8">
+      <t>マン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハイシャ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7月末</t>
+    <rPh sb="1" eb="2">
+      <t>ガツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>マツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲載予定</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ヨテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金額受領</t>
+    <rPh sb="0" eb="2">
+      <t>キンガク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジュリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>7/23</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -730,7 +1118,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -776,8 +1164,22 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -799,6 +1201,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -861,7 +1275,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -893,6 +1307,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1176,37 +1614,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M58"/>
+  <dimension ref="B2:Q62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C11" sqref="C11"/>
+      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.77734375" customWidth="1"/>
-    <col min="2" max="2" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.5546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1214,13 +1653,13 @@
         <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>6</v>
@@ -1238,887 +1677,1120 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="I4" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J4" s="4"/>
       <c r="L4" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="M4" s="4"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="O4" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B5" s="5" t="s">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="I5" s="5" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J5" s="5"/>
-      <c r="L5" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="L5" s="5"/>
       <c r="M5" s="5"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O5" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
       <c r="I6" s="5" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="J6" s="5"/>
-      <c r="L6" s="5" t="s">
-        <v>99</v>
-      </c>
+      <c r="L6" s="5"/>
       <c r="M6" s="5"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B7" s="5" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="I7" s="5"/>
+      <c r="I7" s="5" t="s">
+        <v>116</v>
+      </c>
       <c r="J7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O7" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="5"/>
-      <c r="I8" s="5"/>
+      <c r="I8" s="5" t="s">
+        <v>126</v>
+      </c>
       <c r="J8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O8" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B9" s="5" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
+      <c r="G9" s="5" t="s">
+        <v>101</v>
+      </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>105</v>
+        <v>70</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>103</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O10" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="s">
-        <v>19</v>
+        <v>95</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D11" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="E11" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B12" s="5" t="s">
-        <v>20</v>
+        <v>91</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>71</v>
+        <v>114</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>80</v>
+        <v>154</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="5"/>
+        <v>51</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B13" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>71</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C13" s="5"/>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F13" s="5"/>
+        <v>80</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>80</v>
+      </c>
       <c r="G13" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="O13" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
+        <v>15</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>78</v>
+      </c>
       <c r="E14" s="5"/>
       <c r="F14" s="5"/>
       <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O14" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B15" s="5" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="5"/>
+        <v>114</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="E15" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F15" s="5"/>
       <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="O15" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B16" s="5" t="s">
-        <v>24</v>
+        <v>53</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D16" s="5"/>
+        <v>114</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="E16" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="O16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5" t="s">
-        <v>52</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="5"/>
       <c r="F17" s="5"/>
       <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="O17" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C18" s="5"/>
+        <v>33</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="5"/>
       <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B19" s="5" t="s">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D19" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>113</v>
+      </c>
       <c r="E19" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G19" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="O19" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B20" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D20" s="5"/>
+        <v>70</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>82</v>
+      </c>
       <c r="E20" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="O20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B21" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="C21" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>70</v>
+      </c>
       <c r="D21" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E21" s="5"/>
+        <v>100</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>51</v>
+      </c>
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="O21" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="s">
-        <v>102</v>
+        <v>24</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="s">
+      <c r="O22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G26" s="5"/>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B24" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B25" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="D28" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B30" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G32" s="5"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B33" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="C33" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B34" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
+      <c r="B34" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D34" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B35" s="9" t="s">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="C35" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D35" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B36" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
+      <c r="D36" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
+      <c r="B37" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="10"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B38" s="9" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="E38" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="F38" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="G38" s="9" t="s">
+      <c r="C39" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C41" s="10" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-    </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B41" s="5" t="s">
+      <c r="D41" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G41" s="5"/>
+      <c r="F41" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G41" s="10"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E42" s="9"/>
-      <c r="F42" s="9"/>
-      <c r="G42" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="C42" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G42" s="10"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E43" s="9"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="C43" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G43" s="10"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B44" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="C44" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E44" s="9"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="9" t="s">
-        <v>45</v>
-      </c>
+      <c r="B44" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="E44" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="G44" s="10"/>
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B45" s="9" t="s">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="E45" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F45" s="9"/>
       <c r="G45" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B46" s="9" t="s">
-        <v>93</v>
+        <v>22</v>
       </c>
       <c r="C46" s="9" t="s">
         <v>36</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>83</v>
+        <v>152</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F46" s="9"/>
       <c r="G46" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F47" s="9"/>
+      <c r="G47" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B48" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D48" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F48" s="9"/>
+      <c r="G48" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F49" s="9"/>
+      <c r="G49" s="9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E50" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="10"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F51" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="10"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E52" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="10"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D54" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-    </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B48" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F48" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G48" s="10"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G49" s="10"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" s="5" t="s">
+      <c r="C55" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E55" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C53" s="5"/>
-      <c r="D53" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E53" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F53" s="5"/>
-      <c r="G53" s="5"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C54" s="5"/>
-      <c r="D54" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E54" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F54" s="5"/>
-      <c r="G54" s="5"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G55" s="5"/>
+      <c r="F55" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G55" s="14" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C56" s="5"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="F56" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G56" s="5"/>
+      <c r="B56" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
+      <c r="B57" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F57" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="5"/>
-      <c r="F58" s="5"/>
-      <c r="G58" s="5"/>
+      <c r="B58" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E59" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="F59" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G59" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="E60" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F60" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="G60" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G61" s="10"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
+      <c r="E62" s="5"/>
+      <c r="F62" s="5"/>
+      <c r="G62" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="B3:G3"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2134,72 +2806,72 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C9" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C10" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C11" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C13" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C14" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/廃棄判定一覧.xlsx
+++ b/廃棄判定一覧.xlsx
@@ -1100,17 +1100,17 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>金額受領</t>
-    <rPh sb="0" eb="2">
-      <t>キンガク</t>
+    <t>7/23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>掲載中止</t>
+    <rPh sb="0" eb="2">
+      <t>ケイサイ</t>
     </rPh>
     <rPh sb="2" eb="4">
-      <t>ジュリョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>7/23</t>
+      <t>チュウシ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1212,7 +1212,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1324,13 +1324,13 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1618,7 +1618,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H21" sqref="H21"/>
+      <selection pane="bottomLeft" activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2151,22 +2151,22 @@
       <c r="G26" s="5"/>
     </row>
     <row r="27" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="17" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="D27" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="F27" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="G27" s="5" t="s">
+      <c r="F27" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="G27" s="17" t="s">
         <v>101</v>
       </c>
     </row>
@@ -2736,27 +2736,27 @@
       <c r="F59" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="G59" s="18" t="s">
-        <v>157</v>
+      <c r="G59" s="16" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" s="16" t="s">
+      <c r="B60" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="C60" s="16" t="s">
+      <c r="C60" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="D60" s="16" t="s">
+      <c r="D60" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="E60" s="16" t="s">
+      <c r="E60" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="F60" s="16" t="s">
-        <v>156</v>
-      </c>
-      <c r="G60" s="17" t="s">
+      <c r="F60" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G60" s="18" t="s">
         <v>153</v>
       </c>
     </row>
